--- a/Webapp/065634_Schedule_sem7.xlsx
+++ b/Webapp/065634_Schedule_sem7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t xml:space="preserve">DAY</t>
   </si>
@@ -59,7 +59,7 @@
   </si>
   <si>
     <t xml:space="preserve">L
-BI0321(203)
+BIO321(203)
 MTH415(301)
 CHM445(201)
 PHY461(101)
@@ -67,14 +67,14 @@
   </si>
   <si>
     <t xml:space="preserve">H
-BI0410(203)
+BIO410(203)
 CHM320(201)
 MTH312(301)
 PHY412(101)</t>
   </si>
   <si>
     <t xml:space="preserve">A
-BI0310(203)
+BIO310(203)
 CHM411(201)
 MTH410(301)
 PHY312(101)
@@ -82,7 +82,7 @@
   </si>
   <si>
     <t xml:space="preserve">I
-BI0320(203)
+BIO320(203)
 CHM312(201)
 MTH413(301)
 PHY310(101)
@@ -90,7 +90,7 @@
   </si>
   <si>
     <t xml:space="preserve">D
-BI0322(203)
+BIO322(203)
 CHM413(201)
 MTH421(301)
 PHY411(101)
@@ -98,7 +98,7 @@
   </si>
   <si>
     <t xml:space="preserve">F
-BI0314(203)
+BIO314(203)
 CHM421(201)
 MTH314(301)
 PHY313(101)
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t xml:space="preserve">C
-BI0411(203)
+BIO411(203)
 CHM431(201)
 MTH310(301)
 PHY462(101)
@@ -151,8 +151,8 @@
   </si>
   <si>
     <t xml:space="preserve">G
-BI0313(203)
-BI0353(206)
+BIO313(203)
+BIO353(206)
 CHM436(201)
 MTH417(301)</t>
   </si>
@@ -160,15 +160,8 @@
     <t xml:space="preserve">WEDNESDAY</t>
   </si>
   <si>
-    <t xml:space="preserve">H
-BIO410(203)
-CHM320(201)
-MTH312(301)
-PHY412(101)</t>
-  </si>
-  <si>
     <t xml:space="preserve">F
-BI0314(203)
+BIO314(203)
 CHM331(304)
 CHM421(201)
 MTH314(301)
@@ -198,7 +191,7 @@
   <si>
     <t xml:space="preserve">G
 BIO313(203)
-BI0353(206)
+BIO353(206)
 CHM436(201)
 MTH417(301)
 PHY340(101)</t>
@@ -213,7 +206,7 @@
   </si>
   <si>
     <t xml:space="preserve">K
-BI0454(203)
+BIO454(203)
 CHM332(201)
 MTH430(301)
 PHY334(101)
@@ -221,7 +214,7 @@
   </si>
   <si>
     <t xml:space="preserve">A
-BI0310(203)
+BIO310(203)
 CHM411(201)
 MTH410(301)
 PHY312(101)
@@ -229,7 +222,7 @@
   </si>
   <si>
     <t xml:space="preserve">D
-BI0322(203)
+BIO322(203)
 CHM413(201)
 MTH421(301) 
 PHY411(101) 
@@ -240,21 +233,13 @@
   </si>
   <si>
     <t xml:space="preserve">G
-BI0313(203)
+BIO313(203)
 MTH417(301)
 PHY340(101)</t>
   </si>
   <si>
-    <t xml:space="preserve">B
-BI0311(203)
-BI0352(206)
-CHM410(201)
-MTH412(301)
-PHY311(101)</t>
-  </si>
-  <si>
     <t xml:space="preserve">K
-BI0454(203)
+BIO454(203)
 CHM332(201)
 MTH430(301)
 PHY334(101)
@@ -262,7 +247,7 @@
   </si>
   <si>
     <t xml:space="preserve">C
-BI0411(203)
+BIO411(203)
 CHM431(201)
 MTH310(301)
 PHY462(101)</t>
@@ -388,22 +373,22 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,13 +483,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -516,62 +501,62 @@
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="81.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="63.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
